--- a/data/data_kir.xlsx
+++ b/data/data_kir.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Kannab\Documents\optimized_detector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Kannab\Documents\optimized_detector\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD88D6-7D2A-4217-B33F-C619241359AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA2459-BB77-4063-8745-8A401AA983E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22965" yWindow="6975" windowWidth="21600" windowHeight="11385" firstSheet="3" xr2:uid="{9F810539-CA33-40E3-A0A2-DE958A15F701}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="6" xr2:uid="{9F810539-CA33-40E3-A0A2-DE958A15F701}"/>
   </bookViews>
   <sheets>
     <sheet name="Детерм, 0.25" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Амплитуда, 1.0" sheetId="4" r:id="rId4"/>
     <sheet name="Фаза, 0.25" sheetId="6" r:id="rId5"/>
     <sheet name="Фаза, 1.0" sheetId="5" r:id="rId6"/>
+    <sheet name="Амплитуда без сигнала" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
   <si>
     <t>Порог</t>
   </si>
@@ -51,6 +52,9 @@
   </si>
   <si>
     <t>P лт</t>
+  </si>
+  <si>
+    <t>Inf</t>
   </si>
 </sst>
 </file>
@@ -433,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6E71C5-3ED7-4103-9DEB-B3C02427BD55}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1042,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1050,7 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1439,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D13" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,4 +1629,145 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A65842-80E6-4479-B975-9F2A5CF6049D}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>